--- a/Problems 2.xlsx
+++ b/Problems 2.xlsx
@@ -31,6 +31,12 @@
     <t xml:space="preserve">Мобильный телефон может находится во взаимоисключающих связях с магазином, если он еще не продан, с пользователем, </t>
   </si>
   <si>
+    <t xml:space="preserve">если он уже куплен, и с сервисом, если он поломан и сдан в ремонт. Как избавиться от взаимоисключающих связей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">при проектировании БД, хранящей информацию об экземплярах сущности "мобильный телефон"?</t>
+  </si>
+  <si>
     <t xml:space="preserve">проданный телефон</t>
   </si>
   <si>
@@ -40,18 +46,12 @@
     <t xml:space="preserve">магазин</t>
   </si>
   <si>
-    <t xml:space="preserve">если он уже куплен, и с сервисом, если он поломан и сдан в ремонт. Как избавиться от взаимоисключающих связей</t>
-  </si>
-  <si>
     <t xml:space="preserve">купленный </t>
   </si>
   <si>
     <t xml:space="preserve">пользователь</t>
   </si>
   <si>
-    <t xml:space="preserve">при проектировании БД, хранящей информацию об экземплярах сущности "мобильный телефон"?</t>
-  </si>
-  <si>
     <t xml:space="preserve">сломанный </t>
   </si>
   <si>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">Напишите на языке OCL условие того, что водителю не может быть меньше 18 лет. Также напишите условие того, что автомобиль не может быть старше 30 лет.</t>
   </si>
   <si>
-    <t xml:space="preserve">context водитель inv:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context автомобиль inv:</t>
+    <t xml:space="preserve">context Водитель inv:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context Автомобиль inv:</t>
   </si>
   <si>
     <t xml:space="preserve">self.возраст &gt;= 18</t>
@@ -103,29 +103,10 @@
     <t xml:space="preserve">Напишите это условие на OCL.</t>
   </si>
   <si>
-    <t xml:space="preserve">context водитель</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">inv: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">self.права.категория == self.автомобиль.категория -&gt; collect</t>
-    </r>
+    <t xml:space="preserve">context Водитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv: self.Права.категория == self.Автомобиль.категория -&gt; collect</t>
   </si>
 </sst>
 </file>
@@ -135,12 +116,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,19 +144,7 @@
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -185,7 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -233,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,10 +218,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -326,18 +292,319 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Изображение 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769320" y="2444400"/>
+          <a:ext cx="6607080" cy="2453040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>433080</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Изображение 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="789120" y="5646600"/>
+          <a:ext cx="7238520" cy="4468680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>334440</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Изображение 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769680" y="10700640"/>
+          <a:ext cx="6400080" cy="2365560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285480</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>165240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Изображение 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="759960" y="13339440"/>
+          <a:ext cx="7120080" cy="1547640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>10080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>758880</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>77760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Изображение 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="779760" y="15432840"/>
+          <a:ext cx="6054840" cy="2170800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660600</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Изображение 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="789480" y="22822200"/>
+          <a:ext cx="5187240" cy="2832840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>207000</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Изображение 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="770400" y="18275760"/>
+          <a:ext cx="6271920" cy="3923640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19440</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>15480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215640</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Изображение 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="779040" y="28071000"/>
+          <a:ext cx="6271920" cy="3923640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J162" activeCellId="0" sqref="J162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.52"/>
   </cols>
@@ -349,200 +616,496 @@
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="3" t="s">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="3" t="s">
+      <c r="F9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B129" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="B149" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2"/>
+      <c r="V154" s="2"/>
+      <c r="W154" s="2"/>
+      <c r="X154" s="2"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="B155" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2"/>
+      <c r="V155" s="2"/>
+      <c r="W155" s="2"/>
+      <c r="X155" s="2"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="R24" s="2" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R25" s="4" t="s">
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -552,5 +1115,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>